--- a/11_Orga/01_AufgabenlisteGewerk5.xlsx
+++ b/11_Orga/01_AufgabenlisteGewerk5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="12975" windowHeight="10845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabenliste" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Durchzuführen von:</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Navigation</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -438,6 +441,15 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -447,15 +459,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -463,19 +466,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H48"/>
+  <dimension ref="B1:H46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -904,15 +907,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="26"/>
@@ -964,9 +967,9 @@
         <v>38092</v>
       </c>
       <c r="E7" s="30"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
@@ -979,9 +982,9 @@
         <v>38095</v>
       </c>
       <c r="E8" s="31"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
@@ -990,11 +993,11 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
@@ -1005,11 +1008,11 @@
       <c r="E10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
@@ -1020,48 +1023,42 @@
       <c r="E11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="13" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="19"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="13"/>
       <c r="D14" s="18"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
@@ -1086,7 +1083,9 @@
       <c r="D17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="22"/>
+      <c r="E17" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="F17" s="8" t="s">
         <v>6</v>
       </c>
@@ -1109,11 +1108,11 @@
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="31"/>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
@@ -1122,11 +1121,11 @@
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
@@ -1135,51 +1134,47 @@
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="31"/>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="2:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+    </row>
+    <row r="22" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
-      <c r="C22" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="C22" s="11"/>
       <c r="D22" s="19"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="13"/>
       <c r="D23" s="18"/>
       <c r="E23" s="31"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="19"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="13"/>
       <c r="D25" s="18"/>
       <c r="E25" s="31"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
@@ -1221,74 +1216,74 @@
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="34"/>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
     </row>
     <row r="30" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="13"/>
       <c r="D30" s="18"/>
       <c r="E30" s="31"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="12"/>
       <c r="D31" s="24"/>
       <c r="E31" s="35"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="13"/>
       <c r="D32" s="18"/>
       <c r="E32" s="31"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="12"/>
       <c r="D33" s="24"/>
       <c r="E33" s="35"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="13"/>
       <c r="D34" s="18"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
     </row>
     <row r="35" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="12"/>
       <c r="D35" s="24"/>
       <c r="E35" s="35"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="42"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="13"/>
       <c r="D36" s="18"/>
       <c r="E36" s="31"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="39"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
@@ -1318,120 +1313,106 @@
       <c r="G39" s="7"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
-      <c r="C40" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-    </row>
-    <row r="41" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="31"/>
-      <c r="F41" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="38"/>
-      <c r="H41" s="39"/>
-    </row>
-    <row r="42" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F41" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+    </row>
+    <row r="42" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
       <c r="C42" s="11" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="41"/>
-      <c r="H42" s="42"/>
-    </row>
-    <row r="43" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="F42" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
       <c r="C43" s="13" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="38"/>
-      <c r="H43" s="39"/>
-    </row>
-    <row r="44" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F43" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
+    </row>
+    <row r="44" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
-      <c r="C44" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="19"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
       <c r="C45" s="13"/>
       <c r="D45" s="18"/>
       <c r="E45" s="31"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
-    </row>
-    <row r="47" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B47" s="10"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39"/>
-    </row>
-    <row r="48" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B48" s="10"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:B37"/>
-  <mergeCells count="36">
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="F48:H48"/>
+  <mergeCells count="34">
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -1443,21 +1424,11 @@
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F46:H46"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
